--- a/Discovery AI.xlsx
+++ b/Discovery AI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b920a845ba829ff/سطح المكتب/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b920a845ba829ff/سطح المكتب/Discovery AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{B46FE9B4-2BD9-4BC4-95CF-A55210C04E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D439FE5-616A-483B-832E-56E9746536A3}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{B46FE9B4-2BD9-4BC4-95CF-A55210C04E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D6B9A93-F9F7-41C7-BF0B-42104DDC6AF9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E01C97C-8A9D-4B10-B0AA-CC7853A26A43}"/>
+    <workbookView minimized="1" xWindow="6735" yWindow="-15285" windowWidth="17280" windowHeight="8880" xr2:uid="{7E01C97C-8A9D-4B10-B0AA-CC7853A26A43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>drink_name</t>
   </si>
@@ -56,41 +56,59 @@
     <t>flavors</t>
   </si>
   <si>
-    <t>0 - بدون</t>
-  </si>
-  <si>
-    <t>1- قليل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- متوسط </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3 - حالي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3 - كثير</t>
-  </si>
-  <si>
-    <t>0 - خفيفه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - متوسطة </t>
-  </si>
-  <si>
-    <t>2 - قوية</t>
-  </si>
-  <si>
-    <t>0 - لا</t>
-  </si>
-  <si>
-    <t>1 - نعم</t>
+    <t>v60 Yemeni coffee</t>
+  </si>
+  <si>
+    <t>v60 Ethiopian coffee</t>
+  </si>
+  <si>
+    <t>v60 Colombian coffee</t>
+  </si>
+  <si>
+    <t>Spanish latte</t>
+  </si>
+  <si>
+    <t>Matcha</t>
+  </si>
+  <si>
+    <t>latte</t>
+  </si>
+  <si>
+    <t>Karkadeh</t>
+  </si>
+  <si>
+    <t>Cold Brew</t>
+  </si>
+  <si>
+    <t>coffee day</t>
+  </si>
+  <si>
+    <t>Americano</t>
+  </si>
+  <si>
+    <t>Mikato</t>
+  </si>
+  <si>
+    <t>hot chocolate</t>
+  </si>
+  <si>
+    <t>Flat white</t>
+  </si>
+  <si>
+    <t>espresso</t>
+  </si>
+  <si>
+    <t>Cortado</t>
+  </si>
+  <si>
+    <t>cappuccino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +122,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,22 +160,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -148,6 +232,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BDADA35-8B3E-47F6-BC21-1E7BC378CB49}" name="Table1" displayName="Table1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F25" xr:uid="{7BDADA35-8B3E-47F6-BC21-1E7BC378CB49}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B1778FE8-EF4C-4D79-AB26-E82101132614}" name="drink_name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{421C67B3-17BB-4F5B-BAF3-2AAB67CF23E7}" name="sweetness" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7CB919AC-FF79-4481-AAED-678BE5DAB724}" name="milk_amount" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{80BE09FE-3184-42B4-AB9D-E4071B0DCF13}" name="coffee_strength" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{F768DEC3-D238-4091-B189-64257BEF5CBA}" name="flavors" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A8292776-644E-4498-B750-8D89412FDDBB}" name="temperature" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,109 +570,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5575F76E-240A-4AAB-BC49-6C2E1629B23A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>